--- a/SAU_INPUT.xlsx
+++ b/SAU_INPUT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/necmettinalpaykocak/Documents/shiny_trials/business_cycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948CB58B-0DF2-8B47-863F-46AF1065F029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85549332-E9DD-0546-822C-0D9185AD6946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="2740" windowWidth="27700" windowHeight="16860" xr2:uid="{6BFF0C84-D35E-2948-8C62-B7B1820116C7}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78AAAF6-CC22-904B-B85E-08F25B1B31EF}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +428,7 @@
         <v>40179</v>
       </c>
       <c r="B2">
-        <v>478865.68752837082</v>
+        <v>471859.926012285</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -436,7 +436,7 @@
         <v>40269</v>
       </c>
       <c r="B3">
-        <v>489890.9939719016</v>
+        <v>486806.55031635775</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -444,7 +444,7 @@
         <v>40360</v>
       </c>
       <c r="B4">
-        <v>492331.79855777958</v>
+        <v>489649.90836517827</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -452,7 +452,7 @@
         <v>40452</v>
       </c>
       <c r="B5">
-        <v>519688.88942896546</v>
+        <v>526998.02610719448</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -460,11 +460,11 @@
         <v>40544</v>
       </c>
       <c r="B6">
-        <v>536859.21394837997</v>
+        <v>528866.1322286888</v>
       </c>
       <c r="C6" s="2">
         <f>(B6/B2-1)*100</f>
-        <v>12.1106038562375</v>
+        <v>12.081171354848141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,11 +472,11 @@
         <v>40634</v>
       </c>
       <c r="B7">
-        <v>539517.72279174754</v>
+        <v>539802.04250384169</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:C45" si="0">(B7/B3-1)*100</f>
-        <v>10.130157408587181</v>
+        <v>10.886355607385333</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -484,11 +484,11 @@
         <v>40725</v>
       </c>
       <c r="B8">
-        <v>542737.57518952677</v>
+        <v>548622.25022632163</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>10.238172057828532</v>
+        <v>12.043776758385928</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -496,11 +496,11 @@
         <v>40817</v>
       </c>
       <c r="B9">
-        <v>559679.50461393851</v>
+        <v>563037.30873618484</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>7.695106822259512</v>
+        <v>6.8385991680469438</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -508,11 +508,11 @@
         <v>40909</v>
       </c>
       <c r="B10">
-        <v>570616.31202148146</v>
+        <v>568924.91074198636</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>6.2878865065632006</v>
+        <v>7.5744647032863099</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -520,11 +520,11 @@
         <v>41000</v>
       </c>
       <c r="B11">
-        <v>574932.96978085546</v>
+        <v>576140.5565920464</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>6.5642416352609922</v>
+        <v>6.7318222657421822</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -532,11 +532,11 @@
         <v>41091</v>
       </c>
       <c r="B12">
-        <v>579695.12202518759</v>
+        <v>580692.15563613991</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>6.8094689819025334</v>
+        <v>5.8455349553519831</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -544,11 +544,11 @@
         <v>41183</v>
       </c>
       <c r="B13">
-        <v>571454.14145945932</v>
+        <v>572120.03923544392</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>2.1038177650694712</v>
+        <v>1.6131667224053903</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -556,11 +556,11 @@
         <v>41275</v>
       </c>
       <c r="B14">
-        <v>570856.3024211704</v>
+        <v>569414.46921251307</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>4.2058103603581642E-2</v>
+        <v>8.6049751255967699E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -568,11 +568,11 @@
         <v>41365</v>
       </c>
       <c r="B15">
-        <v>585588.44876012404</v>
+        <v>586060.50044212944</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>1.853342831135607</v>
+        <v>1.7217923190064877</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -580,11 +580,11 @@
         <v>41456</v>
       </c>
       <c r="B16">
-        <v>602380.42262524948</v>
+        <v>603796.12512716348</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>3.9133157651577211</v>
+        <v>3.97869495338945</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -592,11 +592,11 @@
         <v>41548</v>
       </c>
       <c r="B17">
-        <v>599866.04061229853</v>
+        <v>600827.96815502131</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>4.9718598731784303</v>
+        <v>5.0178156594447243</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -604,11 +604,11 @@
         <v>41640</v>
       </c>
       <c r="B18">
-        <v>608447.64493603341</v>
+        <v>606386.57237598987</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>6.5850797048971899</v>
+        <v>6.4930038069823448</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -616,11 +616,11 @@
         <v>41730</v>
       </c>
       <c r="B19">
-        <v>607546.0186009435</v>
+        <v>608580.4604869592</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>3.7496589776165434</v>
+        <v>3.8425998728528032</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -628,11 +628,11 @@
         <v>41821</v>
       </c>
       <c r="B20">
-        <v>615427.77269757795</v>
+        <v>615646.87055798713</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>2.1659651579422956</v>
+        <v>1.9627064397486516</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,11 +640,11 @@
         <v>41913</v>
       </c>
       <c r="B21">
-        <v>613420.22208496812</v>
+        <v>615406.87181721942</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>2.2595347219246609</v>
+        <v>2.4264688787650757</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -652,11 +652,11 @@
         <v>42005</v>
       </c>
       <c r="B22">
-        <v>625339.32018701779</v>
+        <v>623037.75669170136</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>2.7761920670693385</v>
+        <v>2.7459685082516838</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,11 +664,11 @@
         <v>42095</v>
       </c>
       <c r="B23">
-        <v>639174.1939885529</v>
+        <v>640746.86555251246</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>5.2058896642007024</v>
+        <v>5.2854810750603276</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -676,11 +676,11 @@
         <v>42186</v>
       </c>
       <c r="B24">
-        <v>644229.96071343007</v>
+        <v>640896.31291887769</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>4.6800273392935576</v>
+        <v>4.1012865602656046</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -688,11 +688,11 @@
         <v>42278</v>
       </c>
       <c r="B25">
-        <v>636493.01677179919</v>
+        <v>642089.27364915237</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>3.7613358438703504</v>
+        <v>4.3357334885038235</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,11 +700,11 @@
         <v>42370</v>
       </c>
       <c r="B26">
-        <v>645025.77074480942</v>
+        <v>643737.45784145268</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>3.1481229345859951</v>
+        <v>3.3223831023766026</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,11 +712,11 @@
         <v>42461</v>
       </c>
       <c r="B27">
-        <v>648718.59715869336</v>
+        <v>646130.26988207304</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>1.4932397552820165</v>
+        <v>0.8401764595318717</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,11 +724,11 @@
         <v>42552</v>
       </c>
       <c r="B28">
-        <v>644647.51251257374</v>
+        <v>643589.70743761421</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>6.4814091955800457E-2</v>
+        <v>0.42025433201040574</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,11 +736,11 @@
         <v>42644</v>
       </c>
       <c r="B29">
-        <v>649366.96198853466</v>
+        <v>647579.76222287607</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>2.0226373074806459</v>
+        <v>0.85509738272373514</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,11 +748,11 @@
         <v>42736</v>
       </c>
       <c r="B30">
-        <v>640209.100686174</v>
+        <v>640284.21284256142</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>-0.74674071596761982</v>
+        <v>-0.53643685897516447</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,11 +760,11 @@
         <v>42826</v>
       </c>
       <c r="B31">
-        <v>643817.0913042397</v>
+        <v>643789.67995557701</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>-0.75556734089660127</v>
+        <v>-0.36224737264255458</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,11 +772,11 @@
         <v>42917</v>
       </c>
       <c r="B32">
-        <v>646352.24502848333</v>
+        <v>648084.76495918864</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>0.26444413153248192</v>
+        <v>0.69843527166881803</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -784,11 +784,11 @@
         <v>43009</v>
       </c>
       <c r="B33">
-        <v>638191.43816654256</v>
+        <v>637716.20298020495</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7209874348657506</v>
+        <v>-1.523141984674381</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,11 +796,11 @@
         <v>43101</v>
       </c>
       <c r="B34">
-        <v>648082.13501743809</v>
+        <v>648598.14641947951</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>1.2297598273479426</v>
+        <v>1.2984754910648322</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -808,11 +808,11 @@
         <v>43191</v>
       </c>
       <c r="B35">
-        <v>654245.3863498529</v>
+        <v>654157.95200556237</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>1.6197605168398965</v>
+        <v>1.610506097379627</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -820,11 +820,11 @@
         <v>43282</v>
       </c>
       <c r="B36">
-        <v>662151.44465437089</v>
+        <v>664416.19498469692</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>2.4443636960201687</v>
+        <v>2.51995277601329</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,11 +832,11 @@
         <v>43374</v>
       </c>
       <c r="B37">
-        <v>665447.79116852162</v>
+        <v>666674.33516948414</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>4.2708741252129201</v>
+        <v>4.5409120944317705</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,11 +844,11 @@
         <v>43466</v>
       </c>
       <c r="B38">
-        <v>659700.13726168359</v>
+        <v>660384.87168619595</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>1.7926743566126779</v>
+        <v>1.8172616329207747</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -856,11 +856,11 @@
         <v>43556</v>
       </c>
       <c r="B39">
-        <v>660256.50458914402</v>
+        <v>659587.05267084064</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>0.91878649276049273</v>
+        <v>0.82993727258582339</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,11 +868,11 @@
         <v>43647</v>
       </c>
       <c r="B40">
-        <v>658924.5998050319</v>
+        <v>660895.55758179096</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>-0.48732731392338025</v>
+        <v>-0.52988434500562676</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,11 +880,11 @@
         <v>43739</v>
       </c>
       <c r="B41">
-        <v>660930.21690070501</v>
+        <v>662603.1569568218</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>-0.67887734060756433</v>
+        <v>-0.61066970751578742</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,11 +892,11 @@
         <v>43831</v>
       </c>
       <c r="B42">
-        <v>656160.53636945144</v>
+        <v>647851.94863384543</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>-0.53654693887505989</v>
+        <v>-1.8978210418947872</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,11 +904,11 @@
         <v>43922</v>
       </c>
       <c r="B43">
-        <v>614749.40968283673</v>
+        <v>617667.59439647477</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
-        <v>-6.8923357195284085</v>
+        <v>-6.3554095103327217</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -916,11 +916,11 @@
         <v>44013</v>
       </c>
       <c r="B44">
-        <v>623246.20646544883</v>
+        <v>633192.77409653191</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="0"/>
-        <v>-5.4146397554651777</v>
+        <v>-4.1917036916730428</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,11 +928,11 @@
         <v>44105</v>
       </c>
       <c r="B45">
-        <v>637249.24662590807</v>
+        <v>634963.21155142959</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5829758829674874</v>
+        <v>-4.1714177053329919</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,11 +940,11 @@
         <v>44197</v>
       </c>
       <c r="B46">
-        <v>636921.79972207057</v>
+        <v>628391.87189050764</v>
       </c>
       <c r="C46" s="2">
         <f>(B46/B42-1)*100</f>
-        <v>-2.9320167216744131</v>
+        <v>-3.0037845505248795</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,11 +952,23 @@
         <v>44287</v>
       </c>
       <c r="B47">
-        <v>623975.68575095723</v>
+        <v>635230.70217701141</v>
       </c>
       <c r="C47" s="2">
         <f>(B47/B43-1)*100</f>
-        <v>1.5008190203680716</v>
+        <v>2.8434562440818434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B48">
+        <v>672262.83787086769</v>
+      </c>
+      <c r="C48" s="2">
+        <f>(B48/B44-1)*100</f>
+        <v>6.1703268534740729</v>
       </c>
     </row>
   </sheetData>
